--- a/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 210818 to 210902.xlsx
+++ b/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 210818 to 210902.xlsx
@@ -1,1236 +1,1202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main GDrive\Programming\Gthub Repo\New First Gen\First_Gen_Tagoloan_CDO\Rain Gauge\Tagoloan\Rain Gauge 2\Raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567BBDE6-C28C-4EAB-A2D8-5678A36AA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId3"/>
+    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="404">
-  <si>
-    <t xml:space="preserve">Station Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGEN Tagoloan Gauge Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DailyRain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1546480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rain Gauge 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/20/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/21/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/24/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/26/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/27/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/29/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/30/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/31/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/3/2021 1:59:59 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="390">
+  <si>
+    <t>Station Name</t>
+  </si>
+  <si>
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Sensor Value</t>
+  </si>
+  <si>
+    <t>Sensor ID</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Sensor Label</t>
+  </si>
+  <si>
+    <t>FGEN Tagoloan Gauge Station</t>
+  </si>
+  <si>
+    <t>DailyRain</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1546480</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>8/19/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>Rain Gauge 1</t>
+  </si>
+  <si>
+    <t>8/19/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/19/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/19/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/19/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/19/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/19/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/19/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>8/19/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>8/19/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>8/19/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/20/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/20/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/21/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/21/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/22/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>8/22/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>8/22/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>8/22/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>8/22/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>8/22/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>8/22/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/22/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/23/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/23/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>8/23/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>8/23/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>8/23/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>8/24/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>8/24/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>8/24/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/24/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/24/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/25/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>8/25/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>8/25/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/25/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/26/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>8/26/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/26/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/27/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>8/27/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>8/27/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/27/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>8/28/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/28/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>8/28/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/28/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/29/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>8/29/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>8/29/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>8/29/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>8/29/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/29/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/30/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/30/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>8/31/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>8/31/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/1/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>9/1/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>9/1/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>9/1/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/1/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>9/1/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>9/2/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>9/2/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>9/2/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>9/2/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>9/2/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>9/2/2021 11:59:59 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1244,7 +1210,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1257,23 +1223,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="L343" sqref="L343"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +2009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +2055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +2078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +2101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +2124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +2147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +2216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +2239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2032,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2170,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2423,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2446,7 +2722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2515,7 +2791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +3067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +3090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +3113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2860,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +3159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2929,7 +3205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2952,7 +3228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +3251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3021,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3182,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3205,7 +3481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3228,7 +3504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3320,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3366,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3389,7 +3665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3458,7 +3734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3481,7 +3757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3504,7 +3780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3527,7 +3803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3550,7 +3826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3573,7 +3849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3665,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3688,7 +3964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3711,7 +3987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +4010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3757,7 +4033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3780,7 +4056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3849,7 +4125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3872,7 +4148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +4171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +4194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +4240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3987,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4056,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4125,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4148,7 +4424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4171,7 +4447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4217,7 +4493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4240,7 +4516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4263,7 +4539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +4585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4332,7 +4608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4378,7 +4654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4401,7 +4677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4447,7 +4723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4470,7 +4746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4493,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4562,7 +4838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4585,7 +4861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4677,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4700,7 +4976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4723,7 +4999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +5022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +5045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4815,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -4838,7 +5114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4861,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4884,7 +5160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4907,7 +5183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4930,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4953,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4976,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -5022,7 +5298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5045,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -5068,7 +5344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5114,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5137,7 +5413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5160,7 +5436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -5206,7 +5482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5229,7 +5505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5252,7 +5528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -5275,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5436,7 +5712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -5459,7 +5735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5482,7 +5758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5505,7 +5781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5528,7 +5804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5551,7 +5827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +5850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5597,7 +5873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -5643,7 +5919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5666,7 +5942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5712,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -5735,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -5758,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -5781,7 +6057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +6080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -5827,7 +6103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -5850,7 +6126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -5873,7 +6149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -5896,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -5919,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -5942,7 +6218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +6241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5988,7 +6264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -6011,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -6034,7 +6310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -6057,7 +6333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -6080,7 +6356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -6103,7 +6379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -6126,7 +6402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -6172,7 +6448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -6195,7 +6471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -6218,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -6241,7 +6517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -6287,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -6310,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -6379,7 +6655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -6425,7 +6701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6448,7 +6724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -6471,7 +6747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -6494,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -6517,7 +6793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -6563,7 +6839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -6586,7 +6862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -6609,7 +6885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -6632,7 +6908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -6678,7 +6954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -6701,7 +6977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -6724,7 +7000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -6747,7 +7023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -6770,7 +7046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -6793,7 +7069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6816,7 +7092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -6839,7 +7115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -6862,7 +7138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -6885,7 +7161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -6908,7 +7184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -6931,7 +7207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6954,7 +7230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -6977,7 +7253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -7000,7 +7276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -7023,7 +7299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -7046,7 +7322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -7069,7 +7345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -7092,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -7115,7 +7391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -7138,7 +7414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -7161,7 +7437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -7184,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -7207,7 +7483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -7230,7 +7506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -7253,7 +7529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -7276,7 +7552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -7299,7 +7575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -7322,7 +7598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -7345,7 +7621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -7368,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -7391,7 +7667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -7414,7 +7690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -7437,7 +7713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -7460,7 +7736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -7483,7 +7759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -7506,7 +7782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -7529,7 +7805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -7552,7 +7828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -7575,7 +7851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -7598,7 +7874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -7621,7 +7897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -7644,7 +7920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -7667,7 +7943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -7690,7 +7966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -7713,7 +7989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -7736,7 +8012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -7759,7 +8035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -7782,7 +8058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -7805,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -7828,7 +8104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -7851,7 +8127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -7874,7 +8150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -7897,7 +8173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -7920,7 +8196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -7943,7 +8219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -7966,7 +8242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -7989,7 +8265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -8012,7 +8288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -8035,7 +8311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -8058,7 +8334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -8081,7 +8357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -8104,7 +8380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -8127,7 +8403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -8150,7 +8426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -8173,7 +8449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -8196,7 +8472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -8219,7 +8495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -8242,7 +8518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -8265,7 +8541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -8288,7 +8564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -8311,7 +8587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -8334,7 +8610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -8357,7 +8633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -8380,7 +8656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -8403,7 +8679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -8426,7 +8702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -8449,7 +8725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -8472,7 +8748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -8495,7 +8771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -8518,7 +8794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -8541,7 +8817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -8564,7 +8840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -8587,7 +8863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -8610,7 +8886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -8633,7 +8909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -8656,7 +8932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -8679,7 +8955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -8702,7 +8978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -8725,7 +9001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -8748,7 +9024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -8771,7 +9047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -8794,7 +9070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -8817,7 +9093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -8840,7 +9116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -8863,7 +9139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -8886,7 +9162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -8909,7 +9185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -8932,7 +9208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -8955,7 +9231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -8978,7 +9254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -9001,7 +9277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -9024,7 +9300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -9047,7 +9323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -9070,7 +9346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -9093,7 +9369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -9116,7 +9392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -9139,7 +9415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -9162,7 +9438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -9182,328 +9458,6 @@
         <v>389</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>7</v>
-      </c>
-      <c r="B345" t="s">
-        <v>8</v>
-      </c>
-      <c r="C345" t="s">
-        <v>386</v>
-      </c>
-      <c r="D345" t="s">
-        <v>10</v>
-      </c>
-      <c r="E345" t="s">
-        <v>11</v>
-      </c>
-      <c r="F345" t="s">
-        <v>390</v>
-      </c>
-      <c r="G345" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>7</v>
-      </c>
-      <c r="B346" t="s">
-        <v>8</v>
-      </c>
-      <c r="C346" t="s">
-        <v>386</v>
-      </c>
-      <c r="D346" t="s">
-        <v>10</v>
-      </c>
-      <c r="E346" t="s">
-        <v>11</v>
-      </c>
-      <c r="F346" t="s">
-        <v>391</v>
-      </c>
-      <c r="G346" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>7</v>
-      </c>
-      <c r="B347" t="s">
-        <v>8</v>
-      </c>
-      <c r="C347" t="s">
-        <v>386</v>
-      </c>
-      <c r="D347" t="s">
-        <v>10</v>
-      </c>
-      <c r="E347" t="s">
-        <v>11</v>
-      </c>
-      <c r="F347" t="s">
-        <v>392</v>
-      </c>
-      <c r="G347" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>7</v>
-      </c>
-      <c r="B348" t="s">
-        <v>8</v>
-      </c>
-      <c r="C348" t="s">
-        <v>386</v>
-      </c>
-      <c r="D348" t="s">
-        <v>10</v>
-      </c>
-      <c r="E348" t="s">
-        <v>11</v>
-      </c>
-      <c r="F348" t="s">
-        <v>393</v>
-      </c>
-      <c r="G348" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>7</v>
-      </c>
-      <c r="B349" t="s">
-        <v>8</v>
-      </c>
-      <c r="C349" t="s">
-        <v>386</v>
-      </c>
-      <c r="D349" t="s">
-        <v>10</v>
-      </c>
-      <c r="E349" t="s">
-        <v>11</v>
-      </c>
-      <c r="F349" t="s">
-        <v>394</v>
-      </c>
-      <c r="G349" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>7</v>
-      </c>
-      <c r="B350" t="s">
-        <v>8</v>
-      </c>
-      <c r="C350" t="s">
-        <v>386</v>
-      </c>
-      <c r="D350" t="s">
-        <v>10</v>
-      </c>
-      <c r="E350" t="s">
-        <v>11</v>
-      </c>
-      <c r="F350" t="s">
-        <v>395</v>
-      </c>
-      <c r="G350" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>7</v>
-      </c>
-      <c r="B351" t="s">
-        <v>8</v>
-      </c>
-      <c r="C351" t="s">
-        <v>386</v>
-      </c>
-      <c r="D351" t="s">
-        <v>10</v>
-      </c>
-      <c r="E351" t="s">
-        <v>11</v>
-      </c>
-      <c r="F351" t="s">
-        <v>396</v>
-      </c>
-      <c r="G351" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>7</v>
-      </c>
-      <c r="B352" t="s">
-        <v>8</v>
-      </c>
-      <c r="C352" t="s">
-        <v>386</v>
-      </c>
-      <c r="D352" t="s">
-        <v>10</v>
-      </c>
-      <c r="E352" t="s">
-        <v>11</v>
-      </c>
-      <c r="F352" t="s">
-        <v>397</v>
-      </c>
-      <c r="G352" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>7</v>
-      </c>
-      <c r="B353" t="s">
-        <v>8</v>
-      </c>
-      <c r="C353" t="s">
-        <v>386</v>
-      </c>
-      <c r="D353" t="s">
-        <v>10</v>
-      </c>
-      <c r="E353" t="s">
-        <v>11</v>
-      </c>
-      <c r="F353" t="s">
-        <v>398</v>
-      </c>
-      <c r="G353" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>7</v>
-      </c>
-      <c r="B354" t="s">
-        <v>8</v>
-      </c>
-      <c r="C354" t="s">
-        <v>386</v>
-      </c>
-      <c r="D354" t="s">
-        <v>10</v>
-      </c>
-      <c r="E354" t="s">
-        <v>11</v>
-      </c>
-      <c r="F354" t="s">
-        <v>399</v>
-      </c>
-      <c r="G354" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>7</v>
-      </c>
-      <c r="B355" t="s">
-        <v>8</v>
-      </c>
-      <c r="C355" t="s">
-        <v>386</v>
-      </c>
-      <c r="D355" t="s">
-        <v>10</v>
-      </c>
-      <c r="E355" t="s">
-        <v>11</v>
-      </c>
-      <c r="F355" t="s">
-        <v>400</v>
-      </c>
-      <c r="G355" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>7</v>
-      </c>
-      <c r="B356" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" t="s">
-        <v>386</v>
-      </c>
-      <c r="D356" t="s">
-        <v>10</v>
-      </c>
-      <c r="E356" t="s">
-        <v>11</v>
-      </c>
-      <c r="F356" t="s">
-        <v>401</v>
-      </c>
-      <c r="G356" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>7</v>
-      </c>
-      <c r="B357" t="s">
-        <v>8</v>
-      </c>
-      <c r="C357" t="s">
-        <v>386</v>
-      </c>
-      <c r="D357" t="s">
-        <v>10</v>
-      </c>
-      <c r="E357" t="s">
-        <v>11</v>
-      </c>
-      <c r="F357" t="s">
-        <v>402</v>
-      </c>
-      <c r="G357" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>7</v>
-      </c>
-      <c r="B358" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" t="s">
-        <v>386</v>
-      </c>
-      <c r="D358" t="s">
-        <v>10</v>
-      </c>
-      <c r="E358" t="s">
-        <v>11</v>
-      </c>
-      <c r="F358" t="s">
-        <v>403</v>
-      </c>
-      <c r="G358" t="s">
         <v>13</v>
       </c>
     </row>
